--- a/WEEK 4/Qn2chicken.xlsx
+++ b/WEEK 4/Qn2chicken.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C8D7396-1C95-4B84-84B2-93CA87869D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\OneDrive\Desktop\ZAIN 526\BCA-LAB-NEW\WEEK 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE8774-DE9E-445C-AF42-07046737BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -77,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,15 +230,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,6 +254,1051 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="60"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.5065702994022297E-2"/>
+          <c:y val="0.16652784032818865"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.64886519393409159"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>PORTION CHIPS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SADZA &amp; STEW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RICE &amp; CHICKEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HAMBURGER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SOFT DRINKS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF78-466C-B42F-5214E07FE960}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597478</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>43296</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453BF9E0-F7F4-2D55-4011-3A896E9938AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,11 +1620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -579,14 +1632,14 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="21">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -595,14 +1648,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -617,7 +1670,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -633,7 +1686,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -649,7 +1702,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -665,7 +1718,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -681,7 +1734,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -697,7 +1750,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
@@ -709,7 +1762,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -721,7 +1774,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
@@ -735,5 +1788,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>